--- a/公共方法库.xlsx
+++ b/公共方法库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="21495" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>公用api</t>
   </si>
@@ -174,6 +174,15 @@
 opt={ domain:".kzmall.cc"}</t>
   </si>
   <si>
+    <t>scrollIntoView</t>
+  </si>
+  <si>
+    <t>kzPublicApi.scrollIntoView(dom,warpdom)</t>
+  </si>
+  <si>
+    <t>将被选对象移动到可视范围内</t>
+  </si>
+  <si>
     <t>公用组件</t>
   </si>
 </sst>
@@ -182,10 +191,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -215,7 +224,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,74 +309,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,40 +345,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,13 +388,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,18 +526,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -427,25 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,96 +569,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,6 +635,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -636,6 +669,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,30 +723,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -687,41 +731,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -730,10 +739,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,137 +751,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -917,6 +926,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1237,12 +1252,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:A19"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
@@ -1455,44 +1470,50 @@
       </c>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" ht="25" customHeight="1" spans="1:4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" ht="71" customHeight="1" spans="1:4">
-      <c r="A21" s="3" t="s">
+    <row r="20" ht="108" customHeight="1" spans="1:4">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" ht="25" customHeight="1" spans="1:4">
-      <c r="A22" s="5" t="s">
+      <c r="C20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" ht="114" customHeight="1" spans="1:4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" ht="71" customHeight="1" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" ht="25" customHeight="1" spans="1:4">
+      <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" ht="25" customHeight="1" spans="1:4">
-      <c r="A23" s="5">
+    <row r="24" ht="25" customHeight="1" spans="1:4">
+      <c r="A24" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" ht="25" customHeight="1" spans="1:4">
-      <c r="A24" s="5"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -1539,10 +1560,16 @@
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
     </row>
+    <row r="32" ht="25" customHeight="1" spans="1:4">
+      <c r="A32" s="5"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A11:A13"/>
